--- a/Java-Foundation/Java-Foundation.xlsx
+++ b/Java-Foundation/Java-Foundation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="262">
   <si>
     <t>Book Chapter</t>
   </si>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3479,9 +3479,7 @@
       <c r="B49" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
         <v>21</v>
       </c>
